--- a/Mescp/_Doc/Mescp.xlsx
+++ b/Mescp/_Doc/Mescp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="_Readme" sheetId="7" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="331">
   <si>
     <t>播种-出苗</t>
   </si>
@@ -673,9 +673,6 @@
     <t>Alt</t>
   </si>
   <si>
-    <t>Region</t>
-  </si>
-  <si>
     <t>Remark</t>
   </si>
   <si>
@@ -1141,6 +1138,26 @@
   </si>
   <si>
     <t>AA/BB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RgnID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Region_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Region_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1800,13 +1817,13 @@
     </row>
     <row r="8" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -1822,7 +1839,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:C7"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.125" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2746,7 +2763,7 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J2" s="23" t="s">
         <v>170</v>
@@ -2781,7 +2798,7 @@
         <v>9.5</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J3" s="23">
         <v>0.09</v>
@@ -2816,7 +2833,7 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J4" s="23">
         <v>0.51</v>
@@ -2863,7 +2880,7 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J6" s="24" t="s">
         <v>162</v>
@@ -2898,7 +2915,7 @@
         <v>9.5</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J7" s="24" t="s">
         <v>163</v>
@@ -2933,7 +2950,7 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J8" s="24" t="s">
         <v>164</v>
@@ -2981,7 +2998,7 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J10" s="23" t="s">
         <v>165</v>
@@ -3016,7 +3033,7 @@
         <v>10</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J11" s="23" t="s">
         <v>166</v>
@@ -3051,7 +3068,7 @@
         <v>9.1</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J12" s="23" t="s">
         <v>170</v>
@@ -3097,7 +3114,7 @@
         <v>9.9</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J14" s="24" t="s">
         <v>167</v>
@@ -3132,7 +3149,7 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J15" s="24" t="s">
         <v>168</v>
@@ -3167,7 +3184,7 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J16" s="24" t="s">
         <v>169</v>
@@ -3221,10 +3238,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G124"/>
+  <dimension ref="A1:I124"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C124"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3234,12 +3251,14 @@
     <col min="3" max="3" width="13.875" style="29" customWidth="1"/>
     <col min="4" max="5" width="9" style="29"/>
     <col min="6" max="6" width="9" style="30"/>
-    <col min="7" max="7" width="20.25" style="30" customWidth="1"/>
+    <col min="7" max="7" width="13.625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="11.25" style="30" customWidth="1"/>
+    <col min="9" max="9" width="20.25" style="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="31" t="s">
-        <v>178</v>
+        <v>326</v>
       </c>
       <c r="B1" s="31" t="s">
         <v>173</v>
@@ -3257,10 +3276,16 @@
         <v>177</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+        <v>329</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="32" t="s">
         <v>64</v>
       </c>
@@ -3280,10 +3305,14 @@
         <v>3068</v>
       </c>
       <c r="G2" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="32" t="s">
         <v>64</v>
       </c>
@@ -3303,10 +3332,14 @@
         <v>629</v>
       </c>
       <c r="G3" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="32" t="s">
         <v>64</v>
       </c>
@@ -3314,7 +3347,7 @@
         <v>53972</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D4" s="33">
         <v>11292</v>
@@ -3326,10 +3359,14 @@
         <v>1196</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="32" t="s">
         <v>64</v>
       </c>
@@ -3337,7 +3374,7 @@
         <v>53974</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D5" s="33">
         <v>11418</v>
@@ -3349,10 +3386,14 @@
         <v>723</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="32" t="s">
         <v>64</v>
       </c>
@@ -3360,7 +3401,7 @@
         <v>53978</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D6" s="33">
         <v>11263</v>
@@ -3372,10 +3413,14 @@
         <v>1401</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="32" t="s">
         <v>64</v>
       </c>
@@ -3383,7 +3428,7 @@
         <v>53979</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D7" s="33">
         <v>11308</v>
@@ -3395,10 +3440,14 @@
         <v>1200</v>
       </c>
       <c r="G7" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="32" t="s">
         <v>64</v>
       </c>
@@ -3406,7 +3455,7 @@
         <v>53982</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D8" s="33">
         <v>11327</v>
@@ -3418,10 +3467,14 @@
         <v>1120</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="32" t="s">
         <v>64</v>
       </c>
@@ -3429,7 +3482,7 @@
         <v>53983</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D9" s="33">
         <v>11442</v>
@@ -3441,10 +3494,14 @@
         <v>696</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="32" t="s">
         <v>64</v>
       </c>
@@ -3452,7 +3509,7 @@
         <v>53984</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D10" s="33">
         <v>11347</v>
@@ -3464,10 +3521,14 @@
         <v>827</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="32" t="s">
         <v>64</v>
       </c>
@@ -3475,7 +3536,7 @@
         <v>53985</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D11" s="33">
         <v>11382</v>
@@ -3487,10 +3548,14 @@
         <v>1407</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="32" t="s">
         <v>64</v>
       </c>
@@ -3498,7 +3563,7 @@
         <v>53986</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D12" s="33">
         <v>11388</v>
@@ -3510,10 +3575,14 @@
         <v>732</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="32" t="s">
         <v>64</v>
       </c>
@@ -3521,7 +3590,7 @@
         <v>53987</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D13" s="33">
         <v>11342</v>
@@ -3533,10 +3602,14 @@
         <v>910</v>
       </c>
       <c r="G13" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="32" t="s">
         <v>64</v>
       </c>
@@ -3544,7 +3617,7 @@
         <v>53988</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D14" s="33">
         <v>11367</v>
@@ -3556,10 +3629,14 @@
         <v>776</v>
       </c>
       <c r="G14" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="32" t="s">
         <v>64</v>
       </c>
@@ -3567,7 +3644,7 @@
         <v>53989</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D15" s="33">
         <v>11395</v>
@@ -3579,10 +3656,14 @@
         <v>766</v>
       </c>
       <c r="G15" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="32" t="s">
         <v>64</v>
       </c>
@@ -3590,7 +3671,7 @@
         <v>53990</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D16" s="33">
         <v>11432</v>
@@ -3602,10 +3683,14 @@
         <v>795</v>
       </c>
       <c r="G16" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="32" t="s">
         <v>64</v>
       </c>
@@ -3613,7 +3698,7 @@
         <v>53991</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D17" s="33">
         <v>11433</v>
@@ -3625,10 +3710,14 @@
         <v>930</v>
       </c>
       <c r="G17" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="32" t="s">
         <v>64</v>
       </c>
@@ -3636,7 +3725,7 @@
         <v>53992</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D18" s="33">
         <v>11452</v>
@@ -3648,10 +3737,14 @@
         <v>582</v>
       </c>
       <c r="G18" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="32" t="s">
         <v>64</v>
       </c>
@@ -3659,7 +3752,7 @@
         <v>53993</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D19" s="33">
         <v>11492</v>
@@ -3671,10 +3764,14 @@
         <v>516</v>
       </c>
       <c r="G19" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="32" t="s">
         <v>64</v>
       </c>
@@ -3682,7 +3779,7 @@
         <v>53994</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D20" s="33">
         <v>11407</v>
@@ -3694,10 +3791,14 @@
         <v>700</v>
       </c>
       <c r="G20" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="32" t="s">
         <v>64</v>
       </c>
@@ -3705,7 +3806,7 @@
         <v>53995</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D21" s="33">
         <v>11450</v>
@@ -3717,10 +3818,14 @@
         <v>625</v>
       </c>
       <c r="G21" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="32" t="s">
         <v>64</v>
       </c>
@@ -3728,7 +3833,7 @@
         <v>53997</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D22" s="33">
         <v>11418</v>
@@ -3740,10 +3845,14 @@
         <v>711</v>
       </c>
       <c r="G22" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="32" t="s">
         <v>64</v>
       </c>
@@ -3751,7 +3860,7 @@
         <v>53998</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D23" s="33">
         <v>11465</v>
@@ -3763,10 +3872,14 @@
         <v>616</v>
       </c>
       <c r="G23" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="32" t="s">
         <v>64</v>
       </c>
@@ -3774,7 +3887,7 @@
         <v>54817</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D24" s="33">
         <v>11587</v>
@@ -3786,10 +3899,14 @@
         <v>421</v>
       </c>
       <c r="G24" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="32" t="s">
         <v>64</v>
       </c>
@@ -3797,7 +3914,7 @@
         <v>54900</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D25" s="33">
         <v>11502</v>
@@ -3809,10 +3926,14 @@
         <v>537</v>
       </c>
       <c r="G25" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="32" t="s">
         <v>64</v>
       </c>
@@ -3820,7 +3941,7 @@
         <v>54901</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D26" s="33">
         <v>11517</v>
@@ -3832,10 +3953,14 @@
         <v>475</v>
       </c>
       <c r="G26" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="32" t="s">
         <v>64</v>
       </c>
@@ -3843,7 +3968,7 @@
         <v>54902</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D27" s="33">
         <v>11512</v>
@@ -3855,10 +3980,14 @@
         <v>495</v>
       </c>
       <c r="G27" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="32" t="s">
         <v>64</v>
       </c>
@@ -3866,7 +3995,7 @@
         <v>54903</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D28" s="33">
         <v>11548</v>
@@ -3878,10 +4007,14 @@
         <v>457</v>
       </c>
       <c r="G28" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="32" t="s">
         <v>64</v>
       </c>
@@ -3889,7 +4022,7 @@
         <v>57051</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D29" s="33">
         <v>11120</v>
@@ -3901,10 +4034,14 @@
         <v>4099</v>
       </c>
       <c r="G29" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="32" t="s">
         <v>64</v>
       </c>
@@ -3912,7 +4049,7 @@
         <v>57056</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D30" s="33">
         <v>11088</v>
@@ -3924,10 +4061,14 @@
         <v>3904</v>
       </c>
       <c r="G30" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="32" t="s">
         <v>64</v>
       </c>
@@ -3935,7 +4076,7 @@
         <v>57063</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D31" s="33">
         <v>11177</v>
@@ -3947,10 +4088,14 @@
         <v>5236</v>
       </c>
       <c r="G31" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="32" t="s">
         <v>64</v>
       </c>
@@ -3958,7 +4103,7 @@
         <v>57065</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D32" s="33">
         <v>11218</v>
@@ -3970,10 +4115,14 @@
         <v>1949</v>
       </c>
       <c r="G32" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="32" t="s">
         <v>64</v>
       </c>
@@ -3981,7 +4130,7 @@
         <v>57066</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D33" s="33">
         <v>11167</v>
@@ -3993,10 +4142,14 @@
         <v>3283</v>
       </c>
       <c r="G33" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="32" t="s">
         <v>64</v>
       </c>
@@ -4004,7 +4157,7 @@
         <v>57067</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D34" s="33">
         <v>11103</v>
@@ -4016,10 +4169,14 @@
         <v>5688</v>
       </c>
       <c r="G34" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="32" t="s">
         <v>64</v>
       </c>
@@ -4027,7 +4184,7 @@
         <v>57070</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D35" s="33">
         <v>11212</v>
@@ -4039,10 +4196,14 @@
         <v>3640</v>
       </c>
       <c r="G35" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="32" t="s">
         <v>64</v>
       </c>
@@ -4050,7 +4211,7 @@
         <v>57071</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D36" s="33">
         <v>11243</v>
@@ -4062,10 +4223,14 @@
         <v>3333</v>
       </c>
       <c r="G36" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="32" t="s">
         <v>64</v>
       </c>
@@ -4073,7 +4238,7 @@
         <v>57072</v>
       </c>
       <c r="C37" s="34" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D37" s="33">
         <v>11275</v>
@@ -4085,10 +4250,14 @@
         <v>1275</v>
       </c>
       <c r="G37" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="32" t="s">
         <v>64</v>
       </c>
@@ -4096,7 +4265,7 @@
         <v>57073</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D38" s="33">
         <v>11247</v>
@@ -4108,10 +4277,14 @@
         <v>1371</v>
       </c>
       <c r="G38" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="32" t="s">
         <v>64</v>
       </c>
@@ -4119,7 +4292,7 @@
         <v>57074</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D39" s="33">
         <v>11240</v>
@@ -4131,10 +4304,14 @@
         <v>2522</v>
       </c>
       <c r="G39" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="32" t="s">
         <v>64</v>
       </c>
@@ -4142,7 +4319,7 @@
         <v>57075</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D40" s="33">
         <v>11287</v>
@@ -4154,10 +4331,14 @@
         <v>2031</v>
       </c>
       <c r="G40" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="32" t="s">
         <v>64</v>
       </c>
@@ -4165,7 +4346,7 @@
         <v>57076</v>
       </c>
       <c r="C41" s="34" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D41" s="33">
         <v>11278</v>
@@ -4177,10 +4358,14 @@
         <v>1895</v>
       </c>
       <c r="G41" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" s="32" t="s">
         <v>64</v>
       </c>
@@ -4188,7 +4373,7 @@
         <v>57077</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D42" s="33">
         <v>11165</v>
@@ -4200,10 +4385,14 @@
         <v>7424</v>
       </c>
       <c r="G42" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="32" t="s">
         <v>64</v>
       </c>
@@ -4211,7 +4400,7 @@
         <v>57078</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D43" s="33">
         <v>11247</v>
@@ -4223,10 +4412,14 @@
         <v>3365</v>
       </c>
       <c r="G43" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" s="32" t="s">
         <v>64</v>
       </c>
@@ -4234,7 +4427,7 @@
         <v>57079</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D44" s="33">
         <v>11303</v>
@@ -4246,10 +4439,14 @@
         <v>1064</v>
       </c>
       <c r="G44" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" s="32" t="s">
         <v>64</v>
       </c>
@@ -4257,7 +4454,7 @@
         <v>57080</v>
       </c>
       <c r="C45" s="34" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D45" s="33">
         <v>11297</v>
@@ -4269,10 +4466,14 @@
         <v>1652</v>
       </c>
       <c r="G45" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" s="32" t="s">
         <v>64</v>
       </c>
@@ -4280,7 +4481,7 @@
         <v>57081</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D46" s="33">
         <v>11343</v>
@@ -4292,10 +4493,14 @@
         <v>1409</v>
       </c>
       <c r="G46" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H46" s="32"/>
+      <c r="I46" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" s="32" t="s">
         <v>64</v>
       </c>
@@ -4303,7 +4508,7 @@
         <v>57082</v>
       </c>
       <c r="C47" s="34" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D47" s="33">
         <v>11302</v>
@@ -4315,10 +4520,14 @@
         <v>4271</v>
       </c>
       <c r="G47" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A48" s="32" t="s">
         <v>64</v>
       </c>
@@ -4326,7 +4535,7 @@
         <v>57083</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D48" s="33">
         <v>11365</v>
@@ -4338,10 +4547,14 @@
         <v>1104</v>
       </c>
       <c r="G48" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" s="32" t="s">
         <v>64</v>
       </c>
@@ -4349,7 +4562,7 @@
         <v>57084</v>
       </c>
       <c r="C49" s="34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D49" s="33">
         <v>11305</v>
@@ -4361,10 +4574,14 @@
         <v>11784</v>
       </c>
       <c r="G49" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="32" t="s">
         <v>64</v>
       </c>
@@ -4372,7 +4589,7 @@
         <v>57085</v>
       </c>
       <c r="C50" s="34" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D50" s="33">
         <v>11333</v>
@@ -4384,10 +4601,14 @@
         <v>2599</v>
       </c>
       <c r="G50" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="32" t="s">
         <v>64</v>
       </c>
@@ -4395,7 +4616,7 @@
         <v>57086</v>
       </c>
       <c r="C51" s="34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D51" s="33">
         <v>11372</v>
@@ -4407,10 +4628,14 @@
         <v>1166</v>
       </c>
       <c r="G51" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H51" s="32"/>
+      <c r="I51" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="32" t="s">
         <v>64</v>
       </c>
@@ -4418,7 +4643,7 @@
         <v>57087</v>
       </c>
       <c r="C52" s="34" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D52" s="33">
         <v>11380</v>
@@ -4430,10 +4655,14 @@
         <v>877</v>
       </c>
       <c r="G52" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H52" s="32"/>
+      <c r="I52" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="32" t="s">
         <v>64</v>
       </c>
@@ -4441,7 +4670,7 @@
         <v>57088</v>
       </c>
       <c r="C53" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D53" s="33">
         <v>11350</v>
@@ -4453,10 +4682,14 @@
         <v>1161</v>
       </c>
       <c r="G53" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54" s="32" t="s">
         <v>64</v>
       </c>
@@ -4464,7 +4697,7 @@
         <v>57089</v>
       </c>
       <c r="C54" s="34" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D54" s="33">
         <v>11387</v>
@@ -4476,10 +4709,14 @@
         <v>668</v>
       </c>
       <c r="G54" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H54" s="32"/>
+      <c r="I54" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="32" t="s">
         <v>64</v>
       </c>
@@ -4487,7 +4724,7 @@
         <v>57090</v>
       </c>
       <c r="C55" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D55" s="33">
         <v>11397</v>
@@ -4499,10 +4736,14 @@
         <v>781</v>
       </c>
       <c r="G55" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H55" s="32"/>
+      <c r="I55" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" s="32" t="s">
         <v>64</v>
       </c>
@@ -4510,7 +4751,7 @@
         <v>57091</v>
       </c>
       <c r="C56" s="34" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D56" s="33">
         <v>11430</v>
@@ -4522,10 +4763,14 @@
         <v>737</v>
       </c>
       <c r="G56" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H56" s="32"/>
+      <c r="I56" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" s="32" t="s">
         <v>64</v>
       </c>
@@ -4533,7 +4778,7 @@
         <v>57093</v>
       </c>
       <c r="C57" s="34" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D57" s="33">
         <v>11482</v>
@@ -4545,10 +4790,14 @@
         <v>733</v>
       </c>
       <c r="G57" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H57" s="32"/>
+      <c r="I57" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="32" t="s">
         <v>64</v>
       </c>
@@ -4556,7 +4805,7 @@
         <v>57094</v>
       </c>
       <c r="C58" s="34" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D58" s="33">
         <v>11422</v>
@@ -4568,10 +4817,14 @@
         <v>674</v>
       </c>
       <c r="G58" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H58" s="32"/>
+      <c r="I58" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59" s="32" t="s">
         <v>64</v>
       </c>
@@ -4579,7 +4832,7 @@
         <v>57095</v>
       </c>
       <c r="C59" s="34" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D59" s="33">
         <v>11415</v>
@@ -4591,10 +4844,14 @@
         <v>611</v>
       </c>
       <c r="G59" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H59" s="32"/>
+      <c r="I59" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60" s="32" t="s">
         <v>64</v>
       </c>
@@ -4602,7 +4859,7 @@
         <v>57096</v>
       </c>
       <c r="C60" s="34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D60" s="33">
         <v>11478</v>
@@ -4614,10 +4871,14 @@
         <v>597</v>
       </c>
       <c r="G60" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H60" s="32"/>
+      <c r="I60" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61" s="32" t="s">
         <v>64</v>
       </c>
@@ -4625,7 +4886,7 @@
         <v>57097</v>
       </c>
       <c r="C61" s="34" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D61" s="33">
         <v>11367</v>
@@ -4637,10 +4898,14 @@
         <v>808</v>
       </c>
       <c r="G61" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H61" s="32"/>
+      <c r="I61" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62" s="32" t="s">
         <v>64</v>
       </c>
@@ -4648,7 +4913,7 @@
         <v>57098</v>
       </c>
       <c r="C62" s="34" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D62" s="33">
         <v>11440</v>
@@ -4660,10 +4925,14 @@
         <v>583</v>
       </c>
       <c r="G62" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H62" s="32"/>
+      <c r="I62" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63" s="32" t="s">
         <v>64</v>
       </c>
@@ -4671,7 +4940,7 @@
         <v>57099</v>
       </c>
       <c r="C63" s="34" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D63" s="33">
         <v>11485</v>
@@ -4683,10 +4952,14 @@
         <v>526</v>
       </c>
       <c r="G63" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H63" s="32"/>
+      <c r="I63" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A64" s="32" t="s">
         <v>64</v>
       </c>
@@ -4694,7 +4967,7 @@
         <v>57156</v>
       </c>
       <c r="C64" s="34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D64" s="33">
         <v>11150</v>
@@ -4706,10 +4979,14 @@
         <v>2503</v>
       </c>
       <c r="G64" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H64" s="32"/>
+      <c r="I64" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A65" s="32" t="s">
         <v>64</v>
       </c>
@@ -4717,7 +4994,7 @@
         <v>57162</v>
       </c>
       <c r="C65" s="34" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D65" s="33">
         <v>11208</v>
@@ -4729,10 +5006,14 @@
         <v>3258</v>
       </c>
       <c r="G65" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H65" s="32"/>
+      <c r="I65" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A66" s="32" t="s">
         <v>64</v>
       </c>
@@ -4740,7 +5021,7 @@
         <v>57169</v>
       </c>
       <c r="C66" s="34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D66" s="33">
         <v>11187</v>
@@ -4752,10 +5033,14 @@
         <v>1591</v>
       </c>
       <c r="G66" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H66" s="32"/>
+      <c r="I66" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A67" s="32" t="s">
         <v>64</v>
       </c>
@@ -4763,7 +5048,7 @@
         <v>57171</v>
       </c>
       <c r="C67" s="34" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D67" s="33">
         <v>11312</v>
@@ -4775,10 +5060,14 @@
         <v>1420</v>
       </c>
       <c r="G67" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H67" s="32"/>
+      <c r="I67" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A68" s="32" t="s">
         <v>64</v>
       </c>
@@ -4786,7 +5075,7 @@
         <v>57173</v>
       </c>
       <c r="C68" s="34" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D68" s="33">
         <v>11288</v>
@@ -4798,10 +5087,14 @@
         <v>1457</v>
       </c>
       <c r="G68" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H68" s="32"/>
+      <c r="I68" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A69" s="32" t="s">
         <v>64</v>
       </c>
@@ -4809,7 +5102,7 @@
         <v>57175</v>
       </c>
       <c r="C69" s="34" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D69" s="33">
         <v>11223</v>
@@ -4821,10 +5114,14 @@
         <v>1914</v>
       </c>
       <c r="G69" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H69" s="32"/>
+      <c r="I69" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A70" s="32" t="s">
         <v>64</v>
       </c>
@@ -4832,7 +5129,7 @@
         <v>57176</v>
       </c>
       <c r="C70" s="34" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D70" s="33">
         <v>11242</v>
@@ -4844,10 +5141,14 @@
         <v>2311</v>
       </c>
       <c r="G70" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H70" s="32"/>
+      <c r="I70" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A71" s="32" t="s">
         <v>64</v>
       </c>
@@ -4855,7 +5156,7 @@
         <v>57177</v>
       </c>
       <c r="C71" s="34" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D71" s="33">
         <v>11353</v>
@@ -4867,10 +5168,14 @@
         <v>898</v>
       </c>
       <c r="G71" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H71" s="32"/>
+      <c r="I71" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A72" s="32" t="s">
         <v>64</v>
       </c>
@@ -4878,7 +5183,7 @@
         <v>57178</v>
       </c>
       <c r="C72" s="34" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D72" s="33">
         <v>11258</v>
@@ -4890,10 +5195,14 @@
         <v>1292</v>
       </c>
       <c r="G72" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H72" s="32"/>
+      <c r="I72" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A73" s="32" t="s">
         <v>64</v>
       </c>
@@ -4901,7 +5210,7 @@
         <v>57179</v>
       </c>
       <c r="C73" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D73" s="33">
         <v>11300</v>
@@ -4913,10 +5222,14 @@
         <v>1604</v>
       </c>
       <c r="G73" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H73" s="32"/>
+      <c r="I73" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A74" s="32" t="s">
         <v>64</v>
       </c>
@@ -4924,7 +5237,7 @@
         <v>57180</v>
       </c>
       <c r="C74" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D74" s="33">
         <v>11320</v>
@@ -4936,10 +5249,14 @@
         <v>1175</v>
       </c>
       <c r="G74" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H74" s="32"/>
+      <c r="I74" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A75" s="32" t="s">
         <v>64</v>
       </c>
@@ -4947,7 +5264,7 @@
         <v>57181</v>
       </c>
       <c r="C75" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D75" s="33">
         <v>11305</v>
@@ -4959,10 +5276,14 @@
         <v>1364</v>
       </c>
       <c r="G75" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H75" s="32"/>
+      <c r="I75" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A76" s="32" t="s">
         <v>64</v>
       </c>
@@ -4970,7 +5291,7 @@
         <v>57182</v>
       </c>
       <c r="C76" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D76" s="33">
         <v>11350</v>
@@ -4982,10 +5303,14 @@
         <v>805</v>
       </c>
       <c r="G76" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H76" s="32"/>
+      <c r="I76" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A77" s="32" t="s">
         <v>64</v>
       </c>
@@ -4993,7 +5318,7 @@
         <v>57183</v>
       </c>
       <c r="C77" s="34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D77" s="33">
         <v>11392</v>
@@ -5005,10 +5330,14 @@
         <v>600</v>
       </c>
       <c r="G77" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H77" s="32"/>
+      <c r="I77" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A78" s="32" t="s">
         <v>64</v>
       </c>
@@ -5016,7 +5345,7 @@
         <v>57184</v>
       </c>
       <c r="C78" s="34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D78" s="33">
         <v>11337</v>
@@ -5028,10 +5357,14 @@
         <v>834</v>
       </c>
       <c r="G78" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H78" s="32"/>
+      <c r="I78" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A79" s="32" t="s">
         <v>64</v>
       </c>
@@ -5039,7 +5372,7 @@
         <v>57185</v>
       </c>
       <c r="C79" s="34" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D79" s="33">
         <v>11358</v>
@@ -5051,10 +5384,14 @@
         <v>911</v>
       </c>
       <c r="G79" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H79" s="32"/>
+      <c r="I79" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A80" s="32" t="s">
         <v>64</v>
       </c>
@@ -5062,7 +5399,7 @@
         <v>57186</v>
       </c>
       <c r="C80" s="34" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D80" s="33">
         <v>11405</v>
@@ -5074,10 +5411,14 @@
         <v>587</v>
       </c>
       <c r="G80" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H80" s="32"/>
+      <c r="I80" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A81" s="32" t="s">
         <v>64</v>
       </c>
@@ -5085,7 +5426,7 @@
         <v>57187</v>
       </c>
       <c r="C81" s="34" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D81" s="33">
         <v>11293</v>
@@ -5097,10 +5438,14 @@
         <v>1180</v>
       </c>
       <c r="G81" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H81" s="32"/>
+      <c r="I81" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A82" s="32" t="s">
         <v>64</v>
       </c>
@@ -5108,7 +5453,7 @@
         <v>57188</v>
       </c>
       <c r="C82" s="34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D82" s="33">
         <v>11403</v>
@@ -5120,10 +5465,14 @@
         <v>559</v>
       </c>
       <c r="G82" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H82" s="32"/>
+      <c r="I82" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A83" s="32" t="s">
         <v>64</v>
       </c>
@@ -5131,7 +5480,7 @@
         <v>57189</v>
       </c>
       <c r="C83" s="34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D83" s="33">
         <v>11395</v>
@@ -5143,10 +5492,14 @@
         <v>646</v>
       </c>
       <c r="G83" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H83" s="32"/>
+      <c r="I83" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A84" s="32" t="s">
         <v>64</v>
       </c>
@@ -5154,7 +5507,7 @@
         <v>57190</v>
       </c>
       <c r="C84" s="34" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D84" s="33">
         <v>11440</v>
@@ -5166,10 +5519,14 @@
         <v>505</v>
       </c>
       <c r="G84" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H84" s="32"/>
+      <c r="I84" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A85" s="32" t="s">
         <v>64</v>
       </c>
@@ -5177,7 +5534,7 @@
         <v>57191</v>
       </c>
       <c r="C85" s="34" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D85" s="33">
         <v>11448</v>
@@ -5189,10 +5546,14 @@
         <v>634</v>
       </c>
       <c r="G85" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H85" s="32"/>
+      <c r="I85" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A86" s="32" t="s">
         <v>64</v>
       </c>
@@ -5200,7 +5561,7 @@
         <v>57192</v>
       </c>
       <c r="C86" s="34" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D86" s="33">
         <v>11485</v>
@@ -5212,10 +5573,14 @@
         <v>455</v>
       </c>
       <c r="G86" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H86" s="32"/>
+      <c r="I86" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A87" s="32" t="s">
         <v>64</v>
       </c>
@@ -5223,7 +5588,7 @@
         <v>57193</v>
       </c>
       <c r="C87" s="34" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D87" s="33">
         <v>11452</v>
@@ -5235,10 +5600,14 @@
         <v>526</v>
       </c>
       <c r="G87" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H87" s="32"/>
+      <c r="I87" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A88" s="32" t="s">
         <v>64</v>
       </c>
@@ -5246,7 +5615,7 @@
         <v>57194</v>
       </c>
       <c r="C88" s="34" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D88" s="33">
         <v>11427</v>
@@ -5258,10 +5627,14 @@
         <v>598</v>
       </c>
       <c r="G88" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H88" s="32"/>
+      <c r="I88" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A89" s="32" t="s">
         <v>64</v>
       </c>
@@ -5269,7 +5642,7 @@
         <v>57195</v>
       </c>
       <c r="C89" s="34" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D89" s="33">
         <v>11462</v>
@@ -5281,10 +5654,14 @@
         <v>466</v>
       </c>
       <c r="G89" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H89" s="32"/>
+      <c r="I89" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A90" s="32" t="s">
         <v>64</v>
       </c>
@@ -5292,7 +5669,7 @@
         <v>57196</v>
       </c>
       <c r="C90" s="34" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D90" s="33">
         <v>11487</v>
@@ -5304,10 +5681,14 @@
         <v>420</v>
       </c>
       <c r="G90" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H90" s="32"/>
+      <c r="I90" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A91" s="32" t="s">
         <v>64</v>
       </c>
@@ -5315,7 +5696,7 @@
         <v>57197</v>
       </c>
       <c r="C91" s="34" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D91" s="33">
         <v>11433</v>
@@ -5327,10 +5708,14 @@
         <v>489</v>
       </c>
       <c r="G91" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H91" s="32"/>
+      <c r="I91" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A92" s="32" t="s">
         <v>64</v>
       </c>
@@ -5338,7 +5723,7 @@
         <v>57198</v>
       </c>
       <c r="C92" s="34" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D92" s="33">
         <v>11462</v>
@@ -5350,10 +5735,14 @@
         <v>463</v>
       </c>
       <c r="G92" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H92" s="32"/>
+      <c r="I92" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A93" s="32" t="s">
         <v>64</v>
       </c>
@@ -5361,7 +5750,7 @@
         <v>57261</v>
       </c>
       <c r="C93" s="34" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D93" s="33">
         <v>11152</v>
@@ -5373,10 +5762,14 @@
         <v>2330</v>
       </c>
       <c r="G93" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H93" s="32"/>
+      <c r="I93" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A94" s="32" t="s">
         <v>64</v>
       </c>
@@ -5384,7 +5777,7 @@
         <v>57271</v>
       </c>
       <c r="C94" s="34" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D94" s="33">
         <v>11238</v>
@@ -5396,10 +5789,14 @@
         <v>879</v>
       </c>
       <c r="G94" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H94" s="32"/>
+      <c r="I94" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A95" s="32" t="s">
         <v>64</v>
       </c>
@@ -5407,7 +5804,7 @@
         <v>57273</v>
       </c>
       <c r="C95" s="34" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D95" s="33">
         <v>11285</v>
@@ -5419,10 +5816,14 @@
         <v>1095</v>
       </c>
       <c r="G95" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H95" s="32"/>
+      <c r="I95" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A96" s="32" t="s">
         <v>64</v>
       </c>
@@ -5430,7 +5831,7 @@
         <v>57274</v>
       </c>
       <c r="C96" s="34" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D96" s="33">
         <v>11212</v>
@@ -5442,10 +5843,14 @@
         <v>1076</v>
       </c>
       <c r="G96" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H96" s="32"/>
+      <c r="I96" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A97" s="32" t="s">
         <v>64</v>
       </c>
@@ -5453,7 +5858,7 @@
         <v>57281</v>
       </c>
       <c r="C97" s="34" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D97" s="33">
         <v>11330</v>
@@ -5465,10 +5870,14 @@
         <v>1422</v>
       </c>
       <c r="G97" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H97" s="32"/>
+      <c r="I97" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A98" s="32" t="s">
         <v>64</v>
       </c>
@@ -5476,7 +5885,7 @@
         <v>57285</v>
       </c>
       <c r="C98" s="34" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D98" s="33">
         <v>11342</v>
@@ -5488,10 +5897,14 @@
         <v>1530</v>
       </c>
       <c r="G98" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H98" s="32"/>
+      <c r="I98" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A99" s="32" t="s">
         <v>64</v>
       </c>
@@ -5499,7 +5912,7 @@
         <v>57290</v>
       </c>
       <c r="C99" s="34" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D99" s="33">
         <v>11402</v>
@@ -5511,10 +5924,14 @@
         <v>827</v>
       </c>
       <c r="G99" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H99" s="32"/>
+      <c r="I99" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A100" s="32" t="s">
         <v>64</v>
       </c>
@@ -5522,7 +5939,7 @@
         <v>57292</v>
       </c>
       <c r="C100" s="34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D100" s="33">
         <v>11463</v>
@@ -5534,10 +5951,14 @@
         <v>444</v>
       </c>
       <c r="G100" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H100" s="32"/>
+      <c r="I100" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A101" s="32" t="s">
         <v>64</v>
       </c>
@@ -5545,7 +5966,7 @@
         <v>57293</v>
       </c>
       <c r="C101" s="34" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D101" s="33">
         <v>11498</v>
@@ -5557,10 +5978,14 @@
         <v>380</v>
       </c>
       <c r="G101" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H101" s="32"/>
+      <c r="I101" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A102" s="32" t="s">
         <v>64</v>
       </c>
@@ -5568,7 +5993,7 @@
         <v>57294</v>
       </c>
       <c r="C102" s="34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D102" s="33">
         <v>11402</v>
@@ -5580,10 +6005,14 @@
         <v>836</v>
       </c>
       <c r="G102" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H102" s="32"/>
+      <c r="I102" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A103" s="32" t="s">
         <v>64</v>
       </c>
@@ -5591,7 +6020,7 @@
         <v>57295</v>
       </c>
       <c r="C103" s="34" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D103" s="33">
         <v>11435</v>
@@ -5603,10 +6032,14 @@
         <v>785</v>
       </c>
       <c r="G103" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H103" s="32"/>
+      <c r="I103" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A104" s="32" t="s">
         <v>64</v>
       </c>
@@ -5614,7 +6047,7 @@
         <v>57296</v>
       </c>
       <c r="C104" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D104" s="33">
         <v>11473</v>
@@ -5626,10 +6059,14 @@
         <v>489</v>
       </c>
       <c r="G104" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H104" s="32"/>
+      <c r="I104" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A105" s="32" t="s">
         <v>64</v>
       </c>
@@ -5637,7 +6074,7 @@
         <v>57297</v>
       </c>
       <c r="C105" s="34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D105" s="33">
         <v>11405</v>
@@ -5649,10 +6086,14 @@
         <v>1145</v>
       </c>
       <c r="G105" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H105" s="32"/>
+      <c r="I105" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A106" s="32" t="s">
         <v>64</v>
       </c>
@@ -5660,7 +6101,7 @@
         <v>57298</v>
       </c>
       <c r="C106" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D106" s="33">
         <v>11455</v>
@@ -5672,10 +6113,14 @@
         <v>554</v>
       </c>
       <c r="G106" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H106" s="32"/>
+      <c r="I106" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A107" s="32" t="s">
         <v>64</v>
       </c>
@@ -5683,7 +6128,7 @@
         <v>57299</v>
       </c>
       <c r="C107" s="34" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D107" s="33">
         <v>11490</v>
@@ -5695,10 +6140,14 @@
         <v>494</v>
       </c>
       <c r="G107" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H107" s="32"/>
+      <c r="I107" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A108" s="32" t="s">
         <v>64</v>
       </c>
@@ -5706,7 +6155,7 @@
         <v>57390</v>
       </c>
       <c r="C108" s="34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D108" s="33">
         <v>11407</v>
@@ -5718,10 +6167,14 @@
         <v>7335</v>
       </c>
       <c r="G108" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H108" s="32"/>
+      <c r="I108" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A109" s="32" t="s">
         <v>64</v>
       </c>
@@ -5729,7 +6182,7 @@
         <v>57396</v>
       </c>
       <c r="C109" s="34" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D109" s="33">
         <v>11485</v>
@@ -5741,10 +6194,14 @@
         <v>1287</v>
       </c>
       <c r="G109" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H109" s="32"/>
+      <c r="I109" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A110" s="32" t="s">
         <v>64</v>
       </c>
@@ -5752,7 +6209,7 @@
         <v>58001</v>
       </c>
       <c r="C110" s="34" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D110" s="33">
         <v>11510</v>
@@ -5764,10 +6221,14 @@
         <v>563</v>
       </c>
       <c r="G110" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H110" s="32"/>
+      <c r="I110" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A111" s="32" t="s">
         <v>64</v>
       </c>
@@ -5775,7 +6236,7 @@
         <v>58004</v>
       </c>
       <c r="C111" s="34" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D111" s="33">
         <v>11515</v>
@@ -5787,10 +6248,14 @@
         <v>606</v>
       </c>
       <c r="G111" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H111" s="32"/>
+      <c r="I111" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A112" s="32" t="s">
         <v>64</v>
       </c>
@@ -5798,7 +6263,7 @@
         <v>58005</v>
       </c>
       <c r="C112" s="34" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D112" s="33">
         <v>11567</v>
@@ -5810,10 +6275,14 @@
         <v>501</v>
       </c>
       <c r="G112" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H112" s="32"/>
+      <c r="I112" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A113" s="32" t="s">
         <v>64</v>
       </c>
@@ -5821,7 +6290,7 @@
         <v>58006</v>
       </c>
       <c r="C113" s="34" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D113" s="33">
         <v>11588</v>
@@ -5833,10 +6302,14 @@
         <v>463</v>
       </c>
       <c r="G113" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H113" s="32"/>
+      <c r="I113" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A114" s="32" t="s">
         <v>64</v>
       </c>
@@ -5844,7 +6317,7 @@
         <v>58007</v>
       </c>
       <c r="C114" s="34" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D114" s="33">
         <v>11530</v>
@@ -5856,10 +6329,14 @@
         <v>472</v>
       </c>
       <c r="G114" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H114" s="32"/>
+      <c r="I114" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A115" s="32" t="s">
         <v>64</v>
       </c>
@@ -5867,7 +6344,7 @@
         <v>58008</v>
       </c>
       <c r="C115" s="34" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D115" s="33">
         <v>11533</v>
@@ -5879,10 +6356,14 @@
         <v>544</v>
       </c>
       <c r="G115" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H115" s="32"/>
+      <c r="I115" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A116" s="32" t="s">
         <v>64</v>
       </c>
@@ -5890,7 +6371,7 @@
         <v>58017</v>
       </c>
       <c r="C116" s="34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D116" s="33">
         <v>11613</v>
@@ -5902,10 +6383,14 @@
         <v>410</v>
       </c>
       <c r="G116" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H116" s="32"/>
+      <c r="I116" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A117" s="32" t="s">
         <v>64</v>
       </c>
@@ -5913,7 +6398,7 @@
         <v>58100</v>
       </c>
       <c r="C117" s="34" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D117" s="33">
         <v>11517</v>
@@ -5925,10 +6410,14 @@
         <v>414</v>
       </c>
       <c r="G117" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H117" s="32"/>
+      <c r="I117" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A118" s="32" t="s">
         <v>64</v>
       </c>
@@ -5936,7 +6425,7 @@
         <v>58101</v>
       </c>
       <c r="C118" s="34" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D118" s="33">
         <v>11548</v>
@@ -5948,10 +6437,14 @@
         <v>413</v>
       </c>
       <c r="G118" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H118" s="32"/>
+      <c r="I118" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A119" s="32" t="s">
         <v>64</v>
       </c>
@@ -5959,7 +6452,7 @@
         <v>58104</v>
       </c>
       <c r="C119" s="34" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D119" s="33">
         <v>11507</v>
@@ -5971,10 +6464,14 @@
         <v>412</v>
       </c>
       <c r="G119" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H119" s="32"/>
+      <c r="I119" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A120" s="32" t="s">
         <v>64</v>
       </c>
@@ -5982,7 +6479,7 @@
         <v>58111</v>
       </c>
       <c r="C120" s="34" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D120" s="33">
         <v>11645</v>
@@ -5994,10 +6491,14 @@
         <v>325</v>
       </c>
       <c r="G120" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H120" s="32"/>
+      <c r="I120" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A121" s="32" t="s">
         <v>64</v>
       </c>
@@ -6005,7 +6506,7 @@
         <v>58205</v>
       </c>
       <c r="C121" s="34" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D121" s="33">
         <v>11543</v>
@@ -6017,10 +6518,14 @@
         <v>349</v>
       </c>
       <c r="G121" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H121" s="32"/>
+      <c r="I121" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A122" s="32" t="s">
         <v>64</v>
       </c>
@@ -6028,7 +6533,7 @@
         <v>58207</v>
       </c>
       <c r="C122" s="34" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D122" s="33">
         <v>11505</v>
@@ -6040,10 +6545,14 @@
         <v>428</v>
       </c>
       <c r="G122" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H122" s="32"/>
+      <c r="I122" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A123" s="32" t="s">
         <v>64</v>
       </c>
@@ -6051,7 +6560,7 @@
         <v>58208</v>
       </c>
       <c r="C123" s="34" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D123" s="33">
         <v>11562</v>
@@ -6063,18 +6572,22 @@
         <v>429</v>
       </c>
       <c r="G123" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="H123" s="32"/>
+      <c r="I123" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A124" s="32" t="s">
         <v>180</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A124" s="32" t="s">
-        <v>181</v>
       </c>
       <c r="B124" s="34">
         <v>58301</v>
       </c>
       <c r="C124" s="34" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D124" s="33">
         <v>11538</v>
@@ -6086,7 +6599,13 @@
         <v>921</v>
       </c>
       <c r="G124" s="32" t="s">
-        <v>180</v>
+        <v>327</v>
+      </c>
+      <c r="H124" s="32" t="s">
+        <v>328</v>
+      </c>
+      <c r="I124" s="32" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -6100,7 +6619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12:A15"/>
     </sheetView>
   </sheetViews>
@@ -6108,37 +6627,37 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F1" t="s">
         <v>319</v>
       </c>
-      <c r="B1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C1" t="s">
-        <v>317</v>
-      </c>
-      <c r="D1" t="s">
-        <v>318</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>320</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>321</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>322</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>324</v>
+      </c>
+      <c r="K1" t="s">
         <v>323</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>325</v>
-      </c>
-      <c r="K1" t="s">
-        <v>324</v>
-      </c>
-      <c r="M1" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
@@ -6155,23 +6674,23 @@
         <v>30.1</v>
       </c>
       <c r="F2">
-        <f>A2-C2</f>
+        <f t="shared" ref="F2:F11" si="0">A2-C2</f>
         <v>0</v>
       </c>
       <c r="G2">
-        <f>D2-A2</f>
+        <f t="shared" ref="G2:G11" si="1">D2-A2</f>
         <v>6.5</v>
       </c>
       <c r="H2">
-        <f>B2-C2</f>
+        <f t="shared" ref="H2:H11" si="2">B2-C2</f>
         <v>3.0999999999999979</v>
       </c>
       <c r="I2">
-        <f>D2-B2</f>
+        <f t="shared" ref="I2:I11" si="3">D2-B2</f>
         <v>3.4000000000000021</v>
       </c>
       <c r="J2">
-        <f>F2*G2</f>
+        <f t="shared" ref="J2:J11" si="4">F2*G2</f>
         <v>0</v>
       </c>
       <c r="K2">
@@ -6179,7 +6698,7 @@
         <v>10.54</v>
       </c>
       <c r="M2">
-        <f>J2/K2</f>
+        <f t="shared" ref="M2:M11" si="5">J2/K2</f>
         <v>0</v>
       </c>
     </row>
@@ -6197,31 +6716,31 @@
         <v>30.1</v>
       </c>
       <c r="F3">
-        <f>A3-C3</f>
+        <f t="shared" si="0"/>
         <v>0.19999999999999929</v>
       </c>
       <c r="G3">
-        <f>D3-A3</f>
+        <f t="shared" si="1"/>
         <v>6.3000000000000007</v>
       </c>
       <c r="H3">
-        <f>B3-C3</f>
+        <f t="shared" si="2"/>
         <v>3.0999999999999979</v>
       </c>
       <c r="I3">
-        <f>D3-B3</f>
+        <f t="shared" si="3"/>
         <v>3.4000000000000021</v>
       </c>
       <c r="J3">
-        <f>F3*G3</f>
+        <f t="shared" si="4"/>
         <v>1.2599999999999956</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K11" si="0">H3*I3</f>
+        <f t="shared" ref="K3:K11" si="6">H3*I3</f>
         <v>10.54</v>
       </c>
       <c r="M3">
-        <f>J3/K3</f>
+        <f t="shared" si="5"/>
         <v>0.11954459203036012</v>
       </c>
     </row>
@@ -6239,31 +6758,31 @@
         <v>30.1</v>
       </c>
       <c r="F4">
-        <f>A4-C4</f>
+        <f t="shared" si="0"/>
         <v>0.39999999999999858</v>
       </c>
       <c r="G4">
-        <f>D4-A4</f>
+        <f t="shared" si="1"/>
         <v>6.1000000000000014</v>
       </c>
       <c r="H4">
-        <f>B4-C4</f>
+        <f t="shared" si="2"/>
         <v>3.0999999999999979</v>
       </c>
       <c r="I4">
-        <f>D4-B4</f>
+        <f t="shared" si="3"/>
         <v>3.4000000000000021</v>
       </c>
       <c r="J4">
-        <f>F4*G4</f>
+        <f t="shared" si="4"/>
         <v>2.439999999999992</v>
       </c>
       <c r="K4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>10.54</v>
       </c>
       <c r="M4">
-        <f>J4/K4</f>
+        <f t="shared" si="5"/>
         <v>0.23149905123339584</v>
       </c>
     </row>
@@ -6281,31 +6800,31 @@
         <v>30.1</v>
       </c>
       <c r="F5">
-        <f>A5-C5</f>
+        <f t="shared" si="0"/>
         <v>1.3999999999999986</v>
       </c>
       <c r="G5">
-        <f>D5-A5</f>
+        <f t="shared" si="1"/>
         <v>5.1000000000000014</v>
       </c>
       <c r="H5">
-        <f>B5-C5</f>
+        <f t="shared" si="2"/>
         <v>3.0999999999999979</v>
       </c>
       <c r="I5">
-        <f>D5-B5</f>
+        <f t="shared" si="3"/>
         <v>3.4000000000000021</v>
       </c>
       <c r="J5">
-        <f>F5*G5</f>
+        <f t="shared" si="4"/>
         <v>7.1399999999999944</v>
       </c>
       <c r="K5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>10.54</v>
       </c>
       <c r="M5">
-        <f>J5/K5</f>
+        <f t="shared" si="5"/>
         <v>0.67741935483870919</v>
       </c>
     </row>
@@ -6323,31 +6842,31 @@
         <v>30.1</v>
       </c>
       <c r="F6">
-        <f>A6-C6</f>
+        <f t="shared" si="0"/>
         <v>2.3999999999999986</v>
       </c>
       <c r="G6">
-        <f>D6-A6</f>
+        <f t="shared" si="1"/>
         <v>4.1000000000000014</v>
       </c>
       <c r="H6">
-        <f>B6-C6</f>
+        <f t="shared" si="2"/>
         <v>3.0999999999999979</v>
       </c>
       <c r="I6">
-        <f>D6-B6</f>
+        <f t="shared" si="3"/>
         <v>3.4000000000000021</v>
       </c>
       <c r="J6">
-        <f>F6*G6</f>
+        <f t="shared" si="4"/>
         <v>9.8399999999999981</v>
       </c>
       <c r="K6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>10.54</v>
       </c>
       <c r="M6">
-        <f>J6/K6</f>
+        <f t="shared" si="5"/>
         <v>0.93358633776091071</v>
       </c>
     </row>
@@ -6365,31 +6884,31 @@
         <v>30.1</v>
       </c>
       <c r="F7">
-        <f>A7-C7</f>
+        <f t="shared" si="0"/>
         <v>3.3999999999999986</v>
       </c>
       <c r="G7">
-        <f>D7-A7</f>
+        <f t="shared" si="1"/>
         <v>3.1000000000000014</v>
       </c>
       <c r="H7">
-        <f>B7-C7</f>
+        <f t="shared" si="2"/>
         <v>3.0999999999999979</v>
       </c>
       <c r="I7">
-        <f>D7-B7</f>
+        <f t="shared" si="3"/>
         <v>3.4000000000000021</v>
       </c>
       <c r="J7">
-        <f>F7*G7</f>
+        <f t="shared" si="4"/>
         <v>10.540000000000001</v>
       </c>
       <c r="K7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>10.54</v>
       </c>
       <c r="M7">
-        <f>J7/K7</f>
+        <f t="shared" si="5"/>
         <v>1.0000000000000002</v>
       </c>
     </row>
@@ -6407,31 +6926,31 @@
         <v>30.1</v>
       </c>
       <c r="F8">
-        <f>A8-C8</f>
+        <f t="shared" si="0"/>
         <v>4.3999999999999986</v>
       </c>
       <c r="G8">
-        <f>D8-A8</f>
+        <f t="shared" si="1"/>
         <v>2.1000000000000014</v>
       </c>
       <c r="H8">
-        <f>B8-C8</f>
+        <f t="shared" si="2"/>
         <v>3.0999999999999979</v>
       </c>
       <c r="I8">
-        <f>D8-B8</f>
+        <f t="shared" si="3"/>
         <v>3.4000000000000021</v>
       </c>
       <c r="J8">
-        <f>F8*G8</f>
+        <f t="shared" si="4"/>
         <v>9.2400000000000038</v>
       </c>
       <c r="K8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>10.54</v>
       </c>
       <c r="M8">
-        <f>J8/K8</f>
+        <f t="shared" si="5"/>
         <v>0.87666034155597761</v>
       </c>
     </row>
@@ -6449,31 +6968,31 @@
         <v>30.1</v>
       </c>
       <c r="F9">
-        <f>A9-C9</f>
+        <f t="shared" si="0"/>
         <v>5.3999999999999986</v>
       </c>
       <c r="G9">
-        <f>D9-A9</f>
+        <f t="shared" si="1"/>
         <v>1.1000000000000014</v>
       </c>
       <c r="H9">
-        <f>B9-C9</f>
+        <f t="shared" si="2"/>
         <v>3.0999999999999979</v>
       </c>
       <c r="I9">
-        <f>D9-B9</f>
+        <f t="shared" si="3"/>
         <v>3.4000000000000021</v>
       </c>
       <c r="J9">
-        <f>F9*G9</f>
+        <f t="shared" si="4"/>
         <v>5.9400000000000057</v>
       </c>
       <c r="K9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>10.54</v>
       </c>
       <c r="M9">
-        <f>J9/K9</f>
+        <f t="shared" si="5"/>
         <v>0.56356736242884309</v>
       </c>
     </row>
@@ -6491,31 +7010,31 @@
         <v>30.1</v>
       </c>
       <c r="F10">
-        <f>A10-C10</f>
+        <f t="shared" si="0"/>
         <v>6.3999999999999986</v>
       </c>
       <c r="G10">
-        <f>D10-A10</f>
+        <f t="shared" si="1"/>
         <v>0.10000000000000142</v>
       </c>
       <c r="H10">
-        <f>B10-C10</f>
+        <f t="shared" si="2"/>
         <v>3.0999999999999979</v>
       </c>
       <c r="I10">
-        <f>D10-B10</f>
+        <f t="shared" si="3"/>
         <v>3.4000000000000021</v>
       </c>
       <c r="J10">
-        <f>F10*G10</f>
+        <f t="shared" si="4"/>
         <v>0.64000000000000901</v>
       </c>
       <c r="K10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>10.54</v>
       </c>
       <c r="M10">
-        <f>J10/K10</f>
+        <f t="shared" si="5"/>
         <v>6.0721062618596687E-2</v>
       </c>
     </row>
@@ -6533,31 +7052,31 @@
         <v>30.1</v>
       </c>
       <c r="F11">
-        <f>A11-C11</f>
+        <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
       <c r="G11">
-        <f>D11-A11</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H11">
-        <f>B11-C11</f>
+        <f t="shared" si="2"/>
         <v>3.0999999999999979</v>
       </c>
       <c r="I11">
-        <f>D11-B11</f>
+        <f t="shared" si="3"/>
         <v>3.4000000000000021</v>
       </c>
       <c r="J11">
-        <f>F11*G11</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>10.54</v>
       </c>
       <c r="M11">
-        <f>J11/K11</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6572,31 +7091,31 @@
         <v>30.1</v>
       </c>
       <c r="F12">
-        <f t="shared" ref="F12:F20" si="1">A12-C12</f>
+        <f t="shared" ref="F12:F20" si="7">A12-C12</f>
         <v>-23.6</v>
       </c>
       <c r="G12">
-        <f t="shared" ref="G12:G20" si="2">D12-A12</f>
+        <f t="shared" ref="G12:G20" si="8">D12-A12</f>
         <v>30.1</v>
       </c>
       <c r="H12">
-        <f t="shared" ref="H12:H20" si="3">B12-C12</f>
+        <f t="shared" ref="H12:H20" si="9">B12-C12</f>
         <v>3.0999999999999979</v>
       </c>
       <c r="I12">
-        <f t="shared" ref="I12:I20" si="4">D12-B12</f>
+        <f t="shared" ref="I12:I20" si="10">D12-B12</f>
         <v>3.4000000000000021</v>
       </c>
       <c r="J12">
-        <f t="shared" ref="J12:J20" si="5">F12*G12</f>
+        <f t="shared" ref="J12:J20" si="11">F12*G12</f>
         <v>-710.36000000000013</v>
       </c>
       <c r="K12">
-        <f t="shared" ref="K12:K20" si="6">H12*I12</f>
+        <f t="shared" ref="K12:K20" si="12">H12*I12</f>
         <v>10.54</v>
       </c>
       <c r="M12">
-        <f t="shared" ref="M12:M20" si="7">J12/K12</f>
+        <f t="shared" ref="M12:M20" si="13">J12/K12</f>
         <v>-67.396584440227727</v>
       </c>
     </row>
@@ -6611,31 +7130,31 @@
         <v>30.1</v>
       </c>
       <c r="F13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-23.6</v>
       </c>
       <c r="G13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>30.1</v>
       </c>
       <c r="H13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>3.0999999999999979</v>
       </c>
       <c r="I13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>3.4000000000000021</v>
       </c>
       <c r="J13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-710.36000000000013</v>
       </c>
       <c r="K13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>10.54</v>
       </c>
       <c r="M13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-67.396584440227727</v>
       </c>
     </row>
@@ -6650,31 +7169,31 @@
         <v>30.1</v>
       </c>
       <c r="F14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-23.6</v>
       </c>
       <c r="G14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>30.1</v>
       </c>
       <c r="H14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>3.0999999999999979</v>
       </c>
       <c r="I14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>3.4000000000000021</v>
       </c>
       <c r="J14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-710.36000000000013</v>
       </c>
       <c r="K14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>10.54</v>
       </c>
       <c r="M14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-67.396584440227727</v>
       </c>
     </row>
@@ -6689,31 +7208,31 @@
         <v>30.1</v>
       </c>
       <c r="F15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-23.6</v>
       </c>
       <c r="G15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>30.1</v>
       </c>
       <c r="H15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>3.0999999999999979</v>
       </c>
       <c r="I15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>3.4000000000000021</v>
       </c>
       <c r="J15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-710.36000000000013</v>
       </c>
       <c r="K15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>10.54</v>
       </c>
       <c r="M15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-67.396584440227727</v>
       </c>
     </row>
@@ -6728,31 +7247,31 @@
         <v>30.1</v>
       </c>
       <c r="F16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-23.6</v>
       </c>
       <c r="G16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>30.1</v>
       </c>
       <c r="H16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>3.0999999999999979</v>
       </c>
       <c r="I16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>3.4000000000000021</v>
       </c>
       <c r="J16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-710.36000000000013</v>
       </c>
       <c r="K16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>10.54</v>
       </c>
       <c r="M16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-67.396584440227727</v>
       </c>
     </row>
@@ -6767,31 +7286,31 @@
         <v>30.1</v>
       </c>
       <c r="F17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-23.6</v>
       </c>
       <c r="G17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>30.1</v>
       </c>
       <c r="H17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>3.0999999999999979</v>
       </c>
       <c r="I17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>3.4000000000000021</v>
       </c>
       <c r="J17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-710.36000000000013</v>
       </c>
       <c r="K17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>10.54</v>
       </c>
       <c r="M17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-67.396584440227727</v>
       </c>
     </row>
@@ -6806,31 +7325,31 @@
         <v>30.1</v>
       </c>
       <c r="F18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-23.6</v>
       </c>
       <c r="G18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>30.1</v>
       </c>
       <c r="H18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>3.0999999999999979</v>
       </c>
       <c r="I18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>3.4000000000000021</v>
       </c>
       <c r="J18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-710.36000000000013</v>
       </c>
       <c r="K18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>10.54</v>
       </c>
       <c r="M18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-67.396584440227727</v>
       </c>
     </row>
@@ -6845,31 +7364,31 @@
         <v>30.1</v>
       </c>
       <c r="F19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-23.6</v>
       </c>
       <c r="G19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>30.1</v>
       </c>
       <c r="H19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>3.0999999999999979</v>
       </c>
       <c r="I19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>3.4000000000000021</v>
       </c>
       <c r="J19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-710.36000000000013</v>
       </c>
       <c r="K19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>10.54</v>
       </c>
       <c r="M19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-67.396584440227727</v>
       </c>
     </row>
@@ -6884,31 +7403,31 @@
         <v>30.1</v>
       </c>
       <c r="F20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-23.6</v>
       </c>
       <c r="G20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>30.1</v>
       </c>
       <c r="H20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>3.0999999999999979</v>
       </c>
       <c r="I20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>3.4000000000000021</v>
       </c>
       <c r="J20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-710.36000000000013</v>
       </c>
       <c r="K20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>10.54</v>
       </c>
       <c r="M20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-67.396584440227727</v>
       </c>
     </row>
